--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3565465.5450765</v>
+        <v>3558448.530184789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>140.6726355021714</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>101.3079822868271</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>17.83981377311385</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>49.9269302202193</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>126.7632886126195</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.2474724296818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.9615837039753</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>111.5131035525857</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.1120900633769</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.9229933309068</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>95.26941357910233</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>217.8304997168216</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>42.20840157555042</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>1.900916560956568</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>36.41593006389109</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>78.34457817029613</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.0984470696782</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>96.38718145721396</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.0548885600497</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>240.9099076974994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2105.214675620634</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.214675620634</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.214675620634</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>616.7626674966796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2679.129077105986</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2679.129077105986</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.129077105986</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2679.129077105986</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2679.129077105986</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2679.129077105986</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2305.663318844906</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1225970345205</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.3742244670506</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.260242234759</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>548.5954256477207</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>400.6823320653276</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>253.7923845674173</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5080,10 +5080,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065435</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.0396462065435</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752259998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>806.1650729342607</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1402.68453966992</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.764529585472</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1202.764529585472</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1202.764529585472</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.764529585472</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>913.3473595485119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>913.3473595485119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5782,13 +5782,13 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.814757496977</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4640.823765219523</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4351.695126433081</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4097.010638227194</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4097.010638227194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.3226148324578</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>251.3864319045509</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>251.3864319045509</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>251.3864319045509</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>251.3864319045509</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.3864319045509</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324578</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324578</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324578</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324578</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,16 +6241,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1908.095276920733</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2392.65782292164</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1186.001039296941</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1186.001039296941</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.001039296941</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>896.58386925998</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>134.00085920159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>134.00085920159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>134.00085920159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>134.00085920159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6964,16 +6964,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909235</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1084.919814363481</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>830.2353261575947</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>540.8181561206343</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>540.8181561206343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.8181561206343</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>693.7762810288173</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>524.8400981009105</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>524.8400981009105</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185175</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185175</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.553384645498</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>875.4247458590569</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>875.4247458590569</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W40" t="n">
-        <v>875.4247458590569</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X40" t="n">
-        <v>875.4247458590569</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y40" t="n">
-        <v>875.4247458590569</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141292</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683719</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404651</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404651</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404651</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404651</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1201.927138271194</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>978.1417230607003</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>689.0130842742586</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>434.3285960683719</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>434.3285960683719</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X43" t="n">
-        <v>434.3285960683719</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.3285960683719</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4306.516118383085</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4306.516118383085</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4306.516118383085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4085.723539239555</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>9.900512684485363</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>159.0121003135235</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.2351313103788</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.8856946302403</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>43.65987261462533</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>116.9087390531963</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338563</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>37.40072481495041</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.661660021188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>14.69493882469045</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.717061341567643</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>106.7054267919857</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.6466444974327</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>143.5077416822667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>112.497898303645</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>207.892774228281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>88.44911398871091</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>52.52664691032217</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>13.8659214235534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>11.22773562632861</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278759</v>
       </c>
       <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,28 +26435,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="M4" t="n">
-        <v>29303.54555230249</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230238</v>
-      </c>
       <c r="O4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219253</v>
+        <v>-108380.1417219257</v>
       </c>
       <c r="C6" t="n">
         <v>481587.737492619</v>
       </c>
       <c r="D6" t="n">
-        <v>481587.737492619</v>
+        <v>481587.7374926191</v>
       </c>
       <c r="E6" t="n">
-        <v>57401.3995499606</v>
+        <v>56426.80829023943</v>
       </c>
       <c r="F6" t="n">
-        <v>582561.4360268574</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="G6" t="n">
-        <v>582561.4360268572</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="H6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="I6" t="n">
-        <v>582561.436026857</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="J6" t="n">
-        <v>406138.216834264</v>
+        <v>405163.6255745423</v>
       </c>
       <c r="K6" t="n">
-        <v>582561.436026857</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="L6" t="n">
-        <v>582561.436026857</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="M6" t="n">
-        <v>447760.4207930191</v>
+        <v>446785.8295332982</v>
       </c>
       <c r="N6" t="n">
-        <v>582561.4360268565</v>
+        <v>581586.8447671351</v>
       </c>
       <c r="O6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.844767135</v>
       </c>
       <c r="P6" t="n">
-        <v>582561.4360268575</v>
+        <v>581586.844767135</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.0796229679635</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>114.7824519154272</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>281.4258593766534</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>36.63858880169786</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>85.03869157211895</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,16 +27827,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>159.5185856293582</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>48.19472341080731</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.9934962877312</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.65885272800563</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>172.5614146326158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>395.7244403717445</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>259.1582176405097</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>492.2066737115366</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.248164095453</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>395.979109561765</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>326.0235748557334</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>450.1033124512091</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187492</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749645</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655657</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3558448.530184789</v>
+        <v>3563387.793033822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>191.6468735142585</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.3079822868271</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>274.452171367011</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,19 +949,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.9269302202193</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>367.5424755537125</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164004356</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6509495310453</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>279.1120900633769</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>26.15603929387865</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.107731335945625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>143.2925104849745</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>96.38718145721396</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>431.1223972961881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>262.1225970345205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>104.3742244670506</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>808.083928634016</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>439.1214116936043</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>439.1214116936043</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>439.1214116936043</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2311.057514205143</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1958.288858935029</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1194.683768698138</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600565</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600565</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653276</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674173</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5041,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,16 +5068,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1017.064856369034</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5463,10 +5463,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
         <v>1090.100879744681</v>
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,19 +5603,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5761,43 +5761,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>980.8428919792032</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>726.1584037733163</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363557</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,28 +6402,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,22 +6448,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,52 +6700,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,13 +6885,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
         <v>614.6238123952638</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615588</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6967,19 +6967,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,49 +7174,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1354.17636097712</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050825</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.125262335200489</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.8130786476576</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>108.8451328388535</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>52.52664691032217</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="N2" t="n">
-        <v>703852.3075278758</v>
-      </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26438,19 +26438,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230234</v>
-      </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219257</v>
+        <v>-108380.1417219255</v>
       </c>
       <c r="C6" t="n">
+        <v>481587.7374926187</v>
+      </c>
+      <c r="D6" t="n">
         <v>481587.737492619</v>
       </c>
-      <c r="D6" t="n">
-        <v>481587.7374926191</v>
-      </c>
       <c r="E6" t="n">
-        <v>56426.80829023943</v>
+        <v>57303.94042398837</v>
       </c>
       <c r="F6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008853</v>
       </c>
       <c r="G6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="H6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="I6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.976900885</v>
       </c>
       <c r="J6" t="n">
-        <v>405163.6255745423</v>
+        <v>406040.7577082919</v>
       </c>
       <c r="K6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008851</v>
       </c>
       <c r="L6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="M6" t="n">
-        <v>446785.8295332982</v>
+        <v>447662.9616670478</v>
       </c>
       <c r="N6" t="n">
-        <v>581586.8447671351</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="O6" t="n">
-        <v>581586.844767135</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="P6" t="n">
-        <v>581586.844767135</v>
+        <v>582463.9769008849</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>191.0869681492221</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.4258593766534</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>107.4781987052507</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>85.03869157211895</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>39.33357018799893</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080731</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.65885272800563</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730089</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>610.8663700188191</v>
       </c>
       <c r="O39" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
